--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -116,7 +116,7 @@
     <t>https://ittech-news.com/landing_pages/servicenow/asad-example-sn.html</t>
   </si>
   <si>
-    <t>CT</t>
+    <t>Core Technology</t>
   </si>
   <si>
     <t>North</t>
@@ -230,7 +230,7 @@
     <t>OL-paid_25Q1_CAM_COBC_SPMT_VEMD_SNE_LOF_Strategicplann-GIC0003798-NOEU-EMEA-13529979674451909</t>
   </si>
   <si>
-    <t>CS</t>
+    <t>Customer Service</t>
   </si>
   <si>
     <t>Belgium;The Netherlands;Luxembourg</t>
@@ -287,7 +287,7 @@
     <t>OL-paid_25Q1_CAM_CSBC_CSMT_VEMD_SNE_LOF_ExecutiveInsig-GIC0003417-MESA-EMEA-5564235042043073</t>
   </si>
   <si>
-    <t>CSO</t>
+    <t>Customer Operations</t>
   </si>
   <si>
     <t>Central</t>
@@ -338,7 +338,7 @@
     <t>OL-paid_25Q1_CAM_CSBC_CSMT_VEMD_SNE_LOF_GartnerMarket-GIC0004856-DA-EMEA-5628535116476847</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>Human Resources</t>
   </si>
   <si>
     <t>UKI</t>
@@ -1513,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -2383,7 +2383,6 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>solution_category</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>marketo_name</t>
-  </si>
-  <si>
-    <t>ET Links</t>
-  </si>
-  <si>
-    <t>LP Links</t>
   </si>
   <si>
     <t>CSO</t>
@@ -143,22 +137,10 @@
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-DA-EMEA-3320226439026672</t>
   </si>
   <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-1.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-central-english-1.html</t>
-  </si>
-  <si>
     <t>Poland;Czech Republic;Greece;Hungary;Slovakia;Romania;Switzerland;Slovenia</t>
   </si>
   <si>
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-CEE-EMEA-9583058220909499</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-2.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-central-english-2.html</t>
   </si>
   <si>
     <t>North</t>
@@ -170,12 +152,6 @@
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-NOEU-EMEA-985074682691006</t>
   </si>
   <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-north-english-3.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-north-english-3.html</t>
-  </si>
-  <si>
     <t>South</t>
   </si>
   <si>
@@ -185,22 +161,10 @@
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-FR-EMEA-274231355683334</t>
   </si>
   <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-4.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-4.html</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-IT-EMEA-7944123745781428</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-5.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-5.html</t>
   </si>
   <si>
     <t>Spain</t>
@@ -209,22 +173,10 @@
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-ES-EMEA-4072587806973327</t>
   </si>
   <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-6.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-6.html</t>
-  </si>
-  <si>
     <t>United Arab Emirates;South Africa;Saudi Arabia;Portugal;Israel</t>
   </si>
   <si>
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-MESA-EMEA-40577951538533275</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-7.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-7.html</t>
   </si>
   <si>
     <t>UKI</t>
@@ -234,12 +186,6 @@
   </si>
   <si>
     <t>OL-paid_25Q1_CAM_CSBC_FSMT_VEMD_SNE_LOF_FSMforDummies-GIC0004804-UKI-EMEA-4965298199310011</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-uki-english-8.html</t>
-  </si>
-  <si>
-    <t>https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-uki-english-8.html</t>
   </si>
 </sst>
 </file>
@@ -1375,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:AA990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1459,12 +1405,8 @@
       <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
@@ -1475,65 +1417,61 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:27">
       <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -1544,65 +1482,61 @@
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>35</v>
+      <c r="R3" s="4" t="s">
+        <v>37</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="18"/>
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
@@ -1613,65 +1547,61 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>35</v>
+      <c r="R4" s="4" t="s">
+        <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
       <c r="W4" s="21"/>
@@ -1682,65 +1612,61 @@
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="O5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="Q5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>35</v>
+      <c r="R5" s="4" t="s">
+        <v>43</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="14"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="6"/>
@@ -1751,65 +1677,61 @@
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="Q6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
+      <c r="R6" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="6"/>
@@ -1820,65 +1742,61 @@
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="O7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>35</v>
+      <c r="R7" s="4" t="s">
+        <v>47</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="6"/>
@@ -1889,65 +1807,61 @@
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:27">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="14"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="6"/>
@@ -1958,65 +1872,61 @@
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="M9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="N9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="O9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="P9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="Q9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>35</v>
+      <c r="R9" s="4" t="s">
+        <v>52</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="6"/>
@@ -19036,22 +18946,6 @@
     <hyperlink ref="N9" r:id="rId1" display="https://www.servicenow.com/lpebk/field-service-management-for-dummies-guide.html"/>
     <hyperlink ref="O9" r:id="rId2" display="https://www.servicenow.com/premium/resource-center/ebook/field-service-management-for-dummies-guide.html"/>
     <hyperlink ref="P9" r:id="rId3" display="https://www.servicenow.com/content/dam/servicenow-assets/public/en-us/doc-type/resource-center/ebook/ebk-field-service-management-for-dummies-guide.pdf"/>
-    <hyperlink ref="S2" r:id="rId4" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-1.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-1.html"/>
-    <hyperlink ref="S3" r:id="rId5" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-2.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-2.html"/>
-    <hyperlink ref="S4" r:id="rId6" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-north-english-3.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-north-english-3.html"/>
-    <hyperlink ref="S5" r:id="rId7" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-4.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-4.html"/>
-    <hyperlink ref="S6" r:id="rId8" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-5.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-5.html"/>
-    <hyperlink ref="S7" r:id="rId9" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-6.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-6.html"/>
-    <hyperlink ref="S8" r:id="rId10" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-7.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-7.html"/>
-    <hyperlink ref="S9" r:id="rId11" display="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-uki-english-8.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-uki-english-8.html"/>
-    <hyperlink ref="T2" r:id="rId4" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-central-english-1.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-1.html"/>
-    <hyperlink ref="T3" r:id="rId5" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-central-english-2.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-central-english-2.html"/>
-    <hyperlink ref="T4" r:id="rId6" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-north-english-3.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-north-english-3.html"/>
-    <hyperlink ref="T5" r:id="rId7" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-4.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-4.html"/>
-    <hyperlink ref="T6" r:id="rId8" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-5.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-5.html"/>
-    <hyperlink ref="T7" r:id="rId9" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-6.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-6.html"/>
-    <hyperlink ref="T8" r:id="rId10" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-south-english-7.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-south-english-7.html"/>
-    <hyperlink ref="T9" r:id="rId11" display="https://ittech-news.com/landing_pages/Servicenow30012025/fsm-for-dummies-uki-english-8.html" tooltip="https://ittech-news.com/landing_pages/Servicenow30012025/et/fsm-for-dummies-uki-english-8.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
